--- a/automationpractice_com/src/test/java/resources/logins.xlsx
+++ b/automationpractice_com/src/test/java/resources/logins.xlsx
@@ -5,33 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OnchariWycliffe\git\automationpractice_com\automationpractice_com\src\test\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OnchariWycliffe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F023C9-36C9-42C2-AB9B-019361A5DAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D0FC14-4229-47AF-BB4D-BC6813D2BF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{DB2B9110-FA17-438F-905F-424D4E545E97}"/>
+    <workbookView xWindow="28680" yWindow="1125" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -51,52 +48,103 @@
     <t>AdminUser</t>
   </si>
   <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>BaseUser</t>
   </si>
   <si>
+    <t>base@123</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>SSOUser</t>
   </si>
   <si>
+    <t>ssouser@123</t>
+  </si>
+  <si>
     <t>SuperUser</t>
   </si>
   <si>
-    <t>admin@123</t>
-  </si>
-  <si>
-    <t>base@123</t>
-  </si>
-  <si>
-    <t>ssouser@123</t>
-  </si>
-  <si>
     <t>super@123</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Zacharia</t>
+  </si>
+  <si>
+    <t>Onchari</t>
+  </si>
+  <si>
+    <t>Anyieni</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Kerubo</t>
+  </si>
+  <si>
+    <t>Zakaria</t>
+  </si>
+  <si>
+    <t>Zipporah</t>
+  </si>
+  <si>
+    <t>Kwamboka</t>
+  </si>
+  <si>
+    <t>Abuga</t>
+  </si>
+  <si>
+    <t>Wycliffe</t>
+  </si>
+  <si>
+    <t>Vane</t>
+  </si>
+  <si>
+    <t>test1@automationpractice.com</t>
+  </si>
+  <si>
+    <t>28328719@Aut?!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,12 +166,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -131,6 +180,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -438,16 +555,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DAEB9F-4F0D-4CB0-B79E-25A29443520E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
   </cols>
@@ -474,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>43466</v>
@@ -483,15 +601,15 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>43469</v>
@@ -500,15 +618,15 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>43472</v>
@@ -517,15 +635,15 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>43475</v>
@@ -534,30 +652,226 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F815EAA-E15E-4243-B83F-48D913A0F29E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0421E237-3077-4007-AA18-46F3213B520C}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A91C1E5F-A134-447D-92C8-AA06B2CF7405}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{79354FBD-CC56-4A35-B9CB-CF75550DB64E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74390E-90D2-4B05-97BA-D837D04A075A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{09CEC619-4CDE-40FF-A7C2-8A0D4DBE4585}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{F4AD3748-056E-4455-9095-5B90D8CB3209}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{D57BE3B2-5C84-448B-A2D9-AE2AAC6CC831}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{498D64A7-12CD-4F35-9649-7258CA9C1992}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{0DA457D5-E64C-4667-B7B3-74FC0ED2AED6}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{E37F612A-3ECE-4167-A9DC-E6CEBFF4D31C}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{7BE2561B-A3D7-41B7-885E-FCD40530AD81}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{D8EFAE64-F694-469D-8CA3-42139ECE5638}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C894E88C-B79A-4C89-BF2E-6029FDBF2C0A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{1BCAF8DC-B438-4FE5-A03C-B6D4CF298625}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{139A10DE-1180-4AF4-A6E5-2043CBA35995}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{DB9B49F4-89D9-4D2C-B55F-598B30FD1DC1}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{1A1FFDF8-6148-4BD7-AF6C-E5AFF3E47AF2}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{E83C45E3-9563-4E2C-8ADA-75FA4DE7A262}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{8B9F1C6B-060E-4AB2-984C-5D1689C16600}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{87931534-4022-4C94-8EDA-D9F63DBA3A6D}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{7FE1DDE1-26F3-49C7-9FA0-72B812CA2470}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>